--- a/table/question/question-chuantonwenhua.xlsx
+++ b/table/question/question-chuantonwenhua.xlsx
@@ -12365,7 +12365,7 @@
   <dimension ref="A1:K1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
